--- a/CSE95_WI25_Attendance.xlsx
+++ b/CSE95_WI25_Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andysmithwick/Downloads/AttendanceScript 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885115A2-A732-294B-BEB0-8AEC346DCBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BE35C7-B243-8541-B3A2-A3D467934756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
